--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.189</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.373</v>
+        <v>16.536</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.031</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.076</v>
+        <v>16.818</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.332</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.493</v>
+        <v>7.151</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.53355789476912</v>
+        <v>10.78798423569322</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.01200025583751</v>
+        <v>10.76940791054204</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.94831073914219</v>
+        <v>11.48754588953701</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.30843802445621</v>
+        <v>7.818377421681678</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.60708907963502</v>
+        <v>19.00300669869011</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.14662525461205</v>
+        <v>20.22962017490694</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.5574609018986</v>
+        <v>26.23082679165588</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.53076023515701</v>
+        <v>29.14491053609981</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.81302198735739</v>
+        <v>22.46547556746849</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.24481374376758</v>
+        <v>39.92817829089752</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.38268823168946</v>
+        <v>19.31669053772687</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.78222929851347</v>
+        <v>23.44167030768518</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.75942005450245</v>
+        <v>26.08645911564183</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.03483473600227</v>
+        <v>17.69213227463562</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.48574970054131</v>
+        <v>38.09550313609957</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.47782711240367</v>
+        <v>20.19225689410302</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.91733776250797</v>
+        <v>20.11848345926328</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.87930691418017</v>
+        <v>22.21722635875917</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.18548407311183</v>
+        <v>14.88245490209107</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.57170227951885</v>
+        <v>36.51619849907376</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.20328701339316</v>
+        <v>23.10490772742587</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.24852201117419</v>
+        <v>24.65445961882711</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.66006208592033</v>
+        <v>18.07031800081964</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.46871344247131</v>
+        <v>21.91384233128983</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.4937303907</v>
+        <v>27.29537754100638</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.85961051990627</v>
+        <v>29.13044810426915</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.50082494525302</v>
+        <v>20.99280495522574</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.77061721428883</v>
+        <v>48.90275972524388</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35.85306634211781</v>
+        <v>53.44142352840733</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.1871004355701</v>
+        <v>43.80947166556945</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.16340580489553</v>
+        <v>47.79371353044996</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40.11753043775303</v>
+        <v>60.69703441324157</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.52169701664367</v>
+        <v>66.3197676001999</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.08317121811143</v>
+        <v>54.9951150649724</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31.99931304270071</v>
+        <v>45.68475675722152</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.08557578844781</v>
+        <v>49.92264289038828</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.41300225961809</v>
+        <v>39.95694421272361</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.41665170069906</v>
+        <v>47.60987969901423</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.35780803751341</v>
+        <v>59.82346371748262</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44.76593105507194</v>
+        <v>65.41885374533388</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.32042986513049</v>
+        <v>53.13439417367442</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>31.12697554074206</v>
+        <v>39.66657779985205</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.1980313535006</v>
+        <v>43.30503484229907</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.55626442721858</v>
+        <v>35.02732222951347</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>37.491630331322</v>
+        <v>48.32360390650981</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>39.47478205149459</v>
+        <v>55.72809718713548</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.86765886181504</v>
+        <v>60.70321991563051</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.45244618383219</v>
+        <v>48.37353010721095</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.87449117880904</v>
+        <v>35.91451918749595</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.68394151277611</v>
+        <v>33.76266330250414</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.73718459703288</v>
+        <v>37.94871491212025</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.71365208211153</v>
+        <v>26.01350351832257</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30.33363127384183</v>
+        <v>26.30048357408981</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.43357595150242</v>
+        <v>44.75036307696007</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.17617727777931</v>
+        <v>47.95340151066952</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.26560557957178</v>
+        <v>54.26584412171262</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>24.16611400079952</v>
+        <v>39.45058852393375</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.91582389704875</v>
+        <v>44.50528688755988</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.6604494421816</v>
+        <v>42.24784844868688</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.39235051787712</v>
+        <v>44.00147769980514</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>34.48545702796018</v>
+        <v>49.91348974323982</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.37965184330794</v>
+        <v>33.57457864061581</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.14826363327706</v>
+        <v>41.84826262493969</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.79276776773084</v>
+        <v>45.08129558960171</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.56359047984681</v>
+        <v>43.45509897062897</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.64216684843715</v>
+        <v>48.8964009080846</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.56556125033104</v>
+        <v>33.68528684466153</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.269423067961</v>
+        <v>40.2247559540319</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.38769829981816</v>
+        <v>30.54455123410814</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.51373100708808</v>
+        <v>34.04069636468657</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.65526854168355</v>
+        <v>23.9332142068137</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>37.86630666583848</v>
+        <v>31.29026426772384</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>39.33080661886535</v>
+        <v>35.63199286072631</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43.79763914908106</v>
+        <v>39.5875920392913</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.15444610102673</v>
+        <v>26.93613713303986</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>32.90048471875166</v>
+        <v>52.66098779542683</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.06287106527598</v>
+        <v>58.90004903927787</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.12893752290615</v>
+        <v>45.95485219572703</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.49956527412775</v>
+        <v>52.54918851465155</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.89448196859669</v>
+        <v>63.09004956056335</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.39878820459457</v>
+        <v>70.60173681763905</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>34.67799668589281</v>
+        <v>54.82543540895862</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>33.12123132883499</v>
+        <v>49.0417566471807</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.28723434499322</v>
+        <v>54.88138763590152</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.34716879405443</v>
+        <v>41.77214418150358</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>39.74315956943669</v>
+        <v>51.59925105608542</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>41.12575510633874</v>
+        <v>62.05175368898146</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>45.63380603964918</v>
+        <v>69.44143918837391</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.90660411900483</v>
+        <v>52.9246937703012</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>32.28310365731682</v>
+        <v>43.82540582248706</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.434564202963</v>
+        <v>49.14257961106242</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.52382598710469</v>
+        <v>38.01167511381004</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.85593905028769</v>
+        <v>51.90394898333138</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.27938924933604</v>
+        <v>59.00669127556284</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.77285404355623</v>
+        <v>65.8642647506281</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.07444347778132</v>
+        <v>49.85235328654981</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.814897427569</v>
+        <v>28.56391697690969</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.72109600797529</v>
+        <v>28.53609017953822</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.75834199178002</v>
+        <v>31.58986879891139</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.7809548279829</v>
+        <v>21.38584100080325</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.86067337997073</v>
+        <v>27.132157645724</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.37720407094568</v>
+        <v>40.16480268829565</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.21652070454165</v>
+        <v>45.35013546863031</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>33.29011906834979</v>
+        <v>50.59458857885241</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>23.23655570348949</v>
+        <v>37.19299203609548</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.44619246689111</v>
+        <v>46.19741629335682</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.60592594122395</v>
+        <v>38.89734556381683</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.43445044789362</v>
+        <v>42.46481707661135</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.51180718207062</v>
+        <v>47.43316345463084</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.45177956652086</v>
+        <v>32.23770479533484</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.68015398866917</v>
+        <v>45.15746105663128</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.7341648506165</v>
+        <v>40.89156423889391</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.60184701161179</v>
+        <v>41.16825489055883</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.66455673124894</v>
+        <v>45.77465865184811</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>22.63392478547929</v>
+        <v>31.59347483312963</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30.79812864707867</v>
+        <v>43.90610931595593</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.96871567856127</v>
+        <v>31.63892535132281</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.08887408390668</v>
+        <v>35.00406576006287</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.24359399707476</v>
+        <v>24.76321667607107</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.48585478136636</v>
+        <v>30.09072849082743</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>39.00420848722306</v>
+        <v>35.72172936499928</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.46336607310994</v>
+        <v>39.46471183034986</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>32.83697668999726</v>
+        <v>27.35728736672977</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>32.4847675872988</v>
+        <v>54.46022561603128</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.6414521029351</v>
+        <v>60.60353824188438</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.72044339837926</v>
+        <v>47.25979482097564</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.12333765815352</v>
+        <v>53.00228574301403</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>40.57199183806619</v>
+        <v>64.67453321408895</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.06878622420798</v>
+        <v>72.0114451718367</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.36454752602106</v>
+        <v>56.54442221006408</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>32.70696279971447</v>
+        <v>52.25071639338834</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>36.86733675659964</v>
+        <v>58.13054878187324</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.94005673325312</v>
+        <v>44.31778838659281</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>39.36853677832399</v>
+        <v>53.51956180119576</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>40.80478067876054</v>
+        <v>64.95228313066636</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>45.30539275072061</v>
+        <v>72.31281945177417</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.59460530318447</v>
+        <v>55.80049480472137</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.86582921850533</v>
+        <v>47.48584173134181</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.01155680523992</v>
+        <v>52.9854770719907</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.11376815940454</v>
+        <v>40.89542011061918</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.4777909148889</v>
+        <v>54.50676006344301</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.95509283844319</v>
+        <v>62.59634766525645</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>44.44101853593731</v>
+        <v>69.60221569617875</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.75918946696941</v>
+        <v>53.27022948492422</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.1611716340254</v>
+        <v>11.99417012222659</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.57771498474991</v>
+        <v>16.60197175895467</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>30.44011724736045</v>
+        <v>17.85453269189353</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.01223875353021</v>
+        <v>17.23770834163943</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.01297827830946</v>
+        <v>16.1285427296738</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.75104313269471</v>
+        <v>22.49579165572295</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.10069933902727</v>
+        <v>33.19074663630022</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.99945129523007</v>
+        <v>36.60809116072143</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>22.49490989947495</v>
+        <v>32.95603043064403</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.62624170774765</v>
+        <v>38.89141076196027</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.98351532064413</v>
+        <v>22.20650624335148</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.32208279449257</v>
+        <v>31.18220186052337</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.22468215240468</v>
+        <v>34.33443438760023</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>22.71336559279845</v>
+        <v>28.96155855141924</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.86335595450597</v>
+        <v>37.08027597257942</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.09398621941453</v>
+        <v>22.84873566555377</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.47197448249124</v>
+        <v>27.36663904995521</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.35961973059593</v>
+        <v>29.98126977443411</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.87867168432964</v>
+        <v>25.65551441390405</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.96506982455514</v>
+        <v>33.45788542760174</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.54466929339612</v>
+        <v>20.52343191272829</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.50668592612008</v>
+        <v>22.14846048661441</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.13447924462425</v>
+        <v>16.89905416462224</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.79471368774161</v>
+        <v>20.01905221550892</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>38.7304988315067</v>
+        <v>26.25988116195966</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.01265727434654</v>
+        <v>27.9382922253011</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>32.86517432466266</v>
+        <v>21.2329526671013</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.08838448313593</v>
+        <v>48.05378335479182</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.0869514959209</v>
+        <v>52.59725043950843</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.6384956085563</v>
+        <v>44.10160730773167</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.46445404681215</v>
+        <v>48.21120176420048</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>40.33014761730176</v>
+        <v>61.78297635171399</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>44.64993327571039</v>
+        <v>67.11630862018544</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>34.4239223861787</v>
+        <v>57.05006285364519</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>32.31350540463929</v>
+        <v>44.99458454312557</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>36.31584891206194</v>
+        <v>49.2241300820077</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.86085849871922</v>
+        <v>40.37694044990467</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.71366270798896</v>
+        <v>47.92310045306659</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>40.56665354738485</v>
+        <v>60.96545072212569</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>44.89035080028297</v>
+        <v>66.2196350604366</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34.65744948554424</v>
+        <v>55.24465266481905</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.45629999414437</v>
+        <v>36.93391382235794</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>35.44370435688204</v>
+        <v>40.57237176528358</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.01909490096433</v>
+        <v>33.58986777611207</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.80432372390934</v>
+        <v>45.66550524668092</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>39.69869040277715</v>
+        <v>53.94137943428224</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.00740599361009</v>
+        <v>58.60774564791558</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>33.80440107732015</v>
+        <v>47.81366305979916</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.68854945488864</v>
+        <v>25.51733697227995</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.83670427275479</v>
+        <v>22.56509085729999</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.89802511895343</v>
+        <v>25.46239580510165</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.86173508788112</v>
+        <v>14.41655802974725</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.85221174553524</v>
+        <v>26.94913189509594</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.29527930650687</v>
+        <v>38.74634723031134</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.37559192714875</v>
+        <v>41.46516213902581</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.47386557428818</v>
+        <v>46.62754733626356</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.3594409451403</v>
+        <v>31.99717276153912</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>34.48313629149612</v>
+        <v>48.46703888520837</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.53002637104686</v>
+        <v>39.05043397065688</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.59913442363333</v>
+        <v>39.96951434622019</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>35.70126215415802</v>
+        <v>44.94111275442354</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.5801182860837</v>
+        <v>28.40092132780747</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>34.72251093598566</v>
+        <v>47.46469073028005</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.6378124464057</v>
+        <v>40.62298936677225</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.74637778803789</v>
+        <v>37.25008546789185</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.83352854313979</v>
+        <v>41.75640914977851</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.74258067458189</v>
+        <v>26.29369511638092</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>33.82151354277949</v>
+        <v>47.55929311055282</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.13108053072023</v>
+        <v>33.34165876518973</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.29763588399663</v>
+        <v>36.90543342873433</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.33965791679809</v>
+        <v>27.0187720575581</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>40.00314536047716</v>
+        <v>27.12009308324215</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.73684055538881</v>
+        <v>33.94936315185956</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.21468222697526</v>
+        <v>37.2646881650725</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.51275800643886</v>
+        <v>26.32091022045065</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.69149789190659</v>
+        <v>59.53500536002344</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.89522083807336</v>
+        <v>66.06808373025815</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.8595510812253</v>
+        <v>52.78392630203136</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.68776531634492</v>
+        <v>51.40602633481384</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>43.35067385627509</v>
+        <v>65.57499319875745</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>47.86674512568078</v>
+        <v>72.63113067747585</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.08499113105282</v>
+        <v>58.29449708177376</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.91873416720935</v>
+        <v>57.1523494571838</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>40.12624361041492</v>
+        <v>63.47810743194332</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>30.08407740525346</v>
+        <v>49.61600416098059</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>41.93920387984453</v>
+        <v>51.23526406718817</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>43.58927846598237</v>
+        <v>64.83181332955829</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>48.1092685725182</v>
+        <v>71.90957673875511</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>37.32067799135213</v>
+        <v>56.51921721640886</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.05888568205209</v>
+        <v>52.74668924579762</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.25143312987309</v>
+        <v>58.62713894224488</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.23950076246661</v>
+        <v>46.39587002980147</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41.02784953063899</v>
+        <v>54.44613670267261</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.71927676417238</v>
+        <v>63.1886247046029</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>47.22425688254827</v>
+        <v>69.79572634855268</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.46537541685736</v>
+        <v>54.25018447791646</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.60710659919641</v>
+        <v>31.85529355572654</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>44.09695438292495</v>
+        <v>23.39476449465251</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>47.93381884904714</v>
+        <v>26.42921159459425</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.03425594310577</v>
+        <v>11.56520517903105</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>48.01698383757471</v>
+        <v>34.21608331496635</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>46.03900819726987</v>
+        <v>39.69721179107469</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>45.46757768638778</v>
+        <v>36.15268955727488</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>49.33716824755008</v>
+        <v>41.06665753652712</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>39.36815963999526</v>
+        <v>23.10546275976169</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>49.47050573571079</v>
+        <v>50.07884373222191</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>46.23750190574508</v>
+        <v>38.6071128089586</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>45.65701117341739</v>
+        <v>33.70897606783501</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>49.5299024007756</v>
+        <v>38.41874133865235</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>39.55549635686483</v>
+        <v>18.76267454105525</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>49.67313746586852</v>
+        <v>49.2534042097096</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>45.47469544822849</v>
+        <v>41.23323077315111</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.92756015508785</v>
+        <v>32.76448478531033</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.78759494038951</v>
+        <v>37.17883558572145</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.83845012481844</v>
+        <v>18.41211738444961</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.90184825466878</v>
+        <v>49.18097211104615</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.68161622694265</v>
+        <v>38.70004909759133</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>51.60491841542876</v>
+        <v>43.37914019029593</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>41.83006084811637</v>
+        <v>31.26687181473145</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>53.39117174950147</v>
+        <v>32.36160157718136</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>53.48094307111023</v>
+        <v>37.65287402782224</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>57.66894541463954</v>
+        <v>41.91102525251645</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>47.29556995977487</v>
+        <v>29.16893862239998</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>49.07161917621136</v>
+        <v>58.51778972149193</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>53.02784288931544</v>
+        <v>65.7244758838996</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.18403135298315</v>
+        <v>50.70645000377742</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>54.88725592619415</v>
+        <v>52.0406920097686</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>54.91353159395109</v>
+        <v>63.46110121121496</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>59.13539606112995</v>
+        <v>70.95717348307545</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.6913573966569</v>
+        <v>55.2951309810331</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>49.26433638366629</v>
+        <v>56.64991181917101</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>53.22381119341533</v>
+        <v>63.67936364076002</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>43.37477594165068</v>
+        <v>48.10544397558671</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>55.10021233403255</v>
+        <v>52.38090959769114</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>55.11600375434296</v>
+        <v>63.63483150551687</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>59.3412405971887</v>
+        <v>71.19932572140715</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>48.89169620724279</v>
+        <v>54.56918294515454</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>48.52792022096587</v>
+        <v>52.74765897422336</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>52.4745399948289</v>
+        <v>59.46108928759723</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>42.65082132694529</v>
+        <v>45.36164722807031</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>54.32099246963165</v>
+        <v>54.58373810283815</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>54.37173462241923</v>
+        <v>61.92119288302748</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>58.58405080260395</v>
+        <v>69.17970081878934</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>48.15937991232045</v>
+        <v>52.44521002525143</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.36586546198151</v>
+        <v>9.176328831179642</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.77830417465915</v>
+        <v>10.17190980229639</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>35.2281391972102</v>
+        <v>10.53816132475967</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.49063498732166</v>
+        <v>7.251254654208999</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.7144494964836</v>
+        <v>19.53947473426902</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>32.78985322932849</v>
+        <v>15.08153649993307</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>33.14229561461251</v>
+        <v>20.61247691562231</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.62467915960968</v>
+        <v>22.74416481457674</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.81879352698296</v>
+        <v>16.88512926911984</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.16005279743607</v>
+        <v>36.41580704765066</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.99014220316391</v>
+        <v>12.58209166642746</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.33329615922938</v>
+        <v>16.56236361750793</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.8191261736448</v>
+        <v>18.32848245941589</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.00735190451659</v>
+        <v>11.0876695399919</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.36480705403396</v>
+        <v>35.22596843357283</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.20569363575243</v>
+        <v>13.27855299421383</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.58320740490235</v>
+        <v>14.10888637395173</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.05562955637805</v>
+        <v>15.57872205279555</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.27054527627948</v>
+        <v>9.030245250374783</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.57183366820841</v>
+        <v>33.55554039358487</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.24935877809411</v>
+        <v>22.14129647199297</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.79814329053531</v>
+        <v>24.08895465333348</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.09840837455618</v>
+        <v>17.15568898994356</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.15317223329522</v>
+        <v>21.14257814505343</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>43.03812044885937</v>
+        <v>26.98681725396319</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>46.88052603818746</v>
+        <v>29.38762961973211</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>37.50592697118645</v>
+        <v>21.46834365035761</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.6324862242338</v>
+        <v>42.33465379689311</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>40.21403712417298</v>
+        <v>46.80284134944342</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.44619104221968</v>
+        <v>37.05169666521123</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>43.65228681885525</v>
+        <v>44.89822495266759</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>44.47408945016883</v>
+        <v>56.34553729103916</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>48.35024285879116</v>
+        <v>62.03670175238776</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.90553965013874</v>
+        <v>51.09882257888579</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.82709977091179</v>
+        <v>39.96693826530876</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.41200896944558</v>
+        <v>44.0844512121143</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.63849657691567</v>
+        <v>34.11502374271338</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.8683202408027</v>
+        <v>46.19538042907818</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>44.67929176770494</v>
+        <v>57.1935921735305</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.55894105906653</v>
+        <v>62.835429325424</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.10824738127667</v>
+        <v>51.0244263300625</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>36.07004836555411</v>
+        <v>34.88075242809781</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.64155135588886</v>
+        <v>38.57571063624842</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.89478323409557</v>
+        <v>30.05163172718727</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>43.06453321289677</v>
+        <v>46.74166769022139</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>43.91179443071685</v>
+        <v>54.21312183717532</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>47.77799635623027</v>
+        <v>59.48422678244567</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.3536289290774</v>
+        <v>47.48977680287013</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.3272694155819</v>
+        <v>5.193121948049946</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.93737349871231</v>
+        <v>4.248229510337705</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.74637720375271</v>
+        <v>4.276595368502203</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.15806829507775</v>
+        <v>1.205680478824814</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.86610968637218</v>
+        <v>4.5341417617174</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>33.87508692890915</v>
+        <v>12.06026568821653</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>34.41981396579784</v>
+        <v>16.49030897007272</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.26413349429347</v>
+        <v>18.52787054869689</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.60102990647461</v>
+        <v>12.44062251919386</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>37.43613594862189</v>
+        <v>18.66072299716446</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.09761504668905</v>
+        <v>12.2547962501614</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.63190800277433</v>
+        <v>14.85631380546631</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.4799516883632</v>
+        <v>16.63751443293951</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.81043600535717</v>
+        <v>8.746206692458458</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.66327442563504</v>
+        <v>17.63023547145937</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.24485643779076</v>
+        <v>12.15397732827183</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>33.81649623176023</v>
+        <v>10.96955401764928</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.6500982914126</v>
+        <v>12.27124427623828</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.00956419232735</v>
+        <v>5.501710340175116</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.80191818136283</v>
+        <v>15.97243748877362</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>36.62528428657043</v>
+        <v>6.740823163704089</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>40.53046990976329</v>
+        <v>6.345894080196697</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.02237998506257</v>
+        <v>2.064956394432492</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>42.7800761498262</v>
+        <v>10.6974655104958</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>43.96817540746196</v>
+        <v>12.94647460345655</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>48.17077060741159</v>
+        <v>12.57178075618809</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>37.93470985556303</v>
+        <v>5.901313569412793</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>38.12737852713649</v>
+        <v>25.04461915733417</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.06806711619746</v>
+        <v>27.28660509132828</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.48562203830868</v>
+        <v>20.04449759779729</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>44.40265815702357</v>
+        <v>30.10776418647</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>45.52245497858235</v>
+        <v>39.16396199410272</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>49.76157996939485</v>
+        <v>42.22875079627124</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>39.44901455344797</v>
+        <v>32.48424325851537</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.34316680526456</v>
+        <v>22.55101393263986</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.28751444635321</v>
+        <v>24.50060269788647</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.6988731156326</v>
+        <v>16.79920525731684</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>44.6415967964001</v>
+        <v>30.14658118922122</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>45.74934871523163</v>
+        <v>38.60307204369743</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>49.99226033321987</v>
+        <v>41.60937117309847</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>39.67315023716586</v>
+        <v>30.89499874066868</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>37.52081657151636</v>
+        <v>17.05129913945372</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>41.45074130295399</v>
+        <v>18.58514635151072</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.89111629781145</v>
+        <v>12.63412139541961</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>43.76985607028963</v>
+        <v>30.83789720927955</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>44.91684730101388</v>
+        <v>35.13098058371052</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>49.14528132024195</v>
+        <v>37.66981407976991</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>38.85471725450078</v>
+        <v>27.02713946921683</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.32051233523676</v>
+        <v>38.8770497005986</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.04954855210322</v>
+        <v>35.72776526273156</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>46.05715186966485</v>
+        <v>39.07309912713946</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.04714379740923</v>
+        <v>28.243542937805</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>43.81296787712433</v>
+        <v>22.50727543127855</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.81399589083289</v>
+        <v>48.55911756533663</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>43.4797100363804</v>
+        <v>50.79790584716366</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>47.52174368677456</v>
+        <v>56.25078682426486</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.43948587593201</v>
+        <v>42.53908153769136</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.3258558105203</v>
+        <v>39.81014483641263</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.02107442515599</v>
+        <v>46.52232966746595</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>43.67727244344652</v>
+        <v>47.22482901317347</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>47.72273361565509</v>
+        <v>52.42903696554941</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>37.63462919222766</v>
+        <v>36.93678360035156</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>45.53860428225542</v>
+        <v>38.97138973226447</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.21556498463835</v>
+        <v>46.26983877119687</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.90690720401425</v>
+        <v>43.49076823675765</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>46.9387670584229</v>
+        <v>48.24517320674958</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.87753789116843</v>
+        <v>33.60196095086905</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.72297052694229</v>
+        <v>36.84737807538741</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>43.83419945280542</v>
+        <v>25.84440716982422</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>47.9097308251522</v>
+        <v>29.19448963009065</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>38.07551318172593</v>
+        <v>19.67358330553462</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>50.55324755058859</v>
+        <v>29.94169634389004</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>50.97164367449125</v>
+        <v>33.82262229993856</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>55.33832798842463</v>
+        <v>37.16408623324437</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>44.82467516587774</v>
+        <v>26.6116628404897</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.28141563460792</v>
+        <v>46.85981734652694</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>49.39151435376402</v>
+        <v>52.86401097709298</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.48558584989484</v>
+        <v>40.57377467512922</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>52.11439602961531</v>
+        <v>50.65968210967175</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>52.46689888960377</v>
+        <v>60.43182049632085</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>56.86915273370102</v>
+        <v>67.17955957377649</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>46.28187510332817</v>
+        <v>53.75355339334695</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>45.48364897026931</v>
+        <v>44.84326412756239</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>49.59712043202898</v>
+        <v>50.63741311333061</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.68550938167406</v>
+        <v>37.82340277205584</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>52.33824317160852</v>
+        <v>51.64399562344617</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>52.67960195257105</v>
+        <v>61.06229276347886</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>57.08536237068085</v>
+        <v>67.88126933968501</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>46.49210290093065</v>
+        <v>53.37035284668566</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>44.70489496394279</v>
+        <v>39.23188150193691</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>48.80477470778272</v>
+        <v>44.62946558030264</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.92014455044499</v>
+        <v>33.30339786024704</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.51389349298383</v>
+        <v>52.29423726987422</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>51.89231528609228</v>
+        <v>58.4450592111429</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>56.28442295739654</v>
+        <v>64.895418035234</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>45.71767697376473</v>
+        <v>50.32545720514436</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.7100870118077</v>
+        <v>4.731106201951444</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.55249049831856</v>
+        <v>5.338213736468266</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.81349836824609</v>
+        <v>5.239418666668083</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.5479669727334</v>
+        <v>3.13003542832551</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.99957596589664</v>
+        <v>9.087318573925081</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.1350517116935</v>
+        <v>13.47642694627536</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.91624789439148</v>
+        <v>18.29575606273671</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.20954599425859</v>
+        <v>20.02561328779486</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.87582867524772</v>
+        <v>15.05817913584761</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.44691221661357</v>
+        <v>29.15668506257071</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.33827361516509</v>
+        <v>10.94009132871511</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.10998012214899</v>
+        <v>14.29075165440132</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.40670677418462</v>
+        <v>15.55842178014666</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.06710710340701</v>
+        <v>9.426512840761212</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.65402142018255</v>
+        <v>25.20374102149533</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>23.53631161314684</v>
+        <v>9.865094061682452</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.34407699350084</v>
+        <v>10.07820621138828</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.62721373258962</v>
+        <v>10.85882644783485</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.31514361540419</v>
+        <v>6.009728856207637</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.84257854496805</v>
+        <v>18.95647126915086</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.9329830084151</v>
+        <v>10.23367158771426</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.28896723502363</v>
+        <v>10.66631377470073</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.06648942368027</v>
+        <v>6.01673539053176</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.21955131968861</v>
+        <v>15.75727498884059</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.57281463437291</v>
+        <v>19.1581189934799</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>38.23317955779193</v>
+        <v>19.67009021450913</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.3223845831041</v>
+        <v>13.13932335687728</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.31659461365392</v>
+        <v>33.39131304500966</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.70509109365306</v>
+        <v>36.3225967845902</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>23.41462728988717</v>
+        <v>28.71538741819094</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.71777258151656</v>
+        <v>42.17085872583451</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.00690392638666</v>
+        <v>50.85454766829656</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.70076583836631</v>
+        <v>54.59418590136005</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.72001315611438</v>
+        <v>44.74687257386115</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.5134020731392</v>
+        <v>28.36234383251412</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>31.90523991316479</v>
+        <v>30.7461544716752</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.60912173824493</v>
+        <v>23.21345148133581</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.93589568552519</v>
+        <v>40.47562348388774</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.21408653164701</v>
+        <v>48.75702481939672</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>39.91141734407623</v>
+        <v>52.20837535354326</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.92469838730543</v>
+        <v>41.77632549621735</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.7395723774175</v>
+        <v>18.6497135716803</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.11780653796771</v>
+        <v>20.38947852494787</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.84932709008572</v>
+        <v>14.87984143042038</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.11515100706728</v>
+        <v>35.82955004617121</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.43127062786911</v>
+        <v>40.60880218340385</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>39.11497289435723</v>
+        <v>43.43850558869988</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.1554486690155</v>
+        <v>33.5947014079968</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.77667452763701</v>
+        <v>0.7888123941623064</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.40943800463664</v>
+        <v>-0.5676954223886561</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.21080278838453</v>
+        <v>-0.05431218776673319</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.66037281956195</v>
+        <v>-4.801161502117921</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.80284110537671</v>
+        <v>22.10556875383858</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.26690699621551</v>
+        <v>7.430193425511845</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.83542404522147</v>
+        <v>10.89906208639399</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.67127446644369</v>
+        <v>13.29823025038545</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.0482396153806</v>
+        <v>5.606230018064668</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.31696424194333</v>
+        <v>37.78742833635856</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.48500295548684</v>
+        <v>7.977079735407713</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.04330393955453</v>
+        <v>9.977933622956566</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.88276303000599</v>
+        <v>12.11403060148643</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.25363090293755</v>
+        <v>2.706338656467558</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.53922586271843</v>
+        <v>37.58292407797088</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.65822357506197</v>
+        <v>11.99398376147892</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.25364923247874</v>
+        <v>10.8076256989963</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>33.07918707630915</v>
+        <v>12.66862787186521</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.47795281500556</v>
+        <v>4.291806648542636</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.70330127247771</v>
+        <v>36.82341514717825</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>32.57169502416076</v>
+        <v>26.16468145678268</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.46494589461079</v>
+        <v>28.59970789469016</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.00630346051269</v>
+        <v>21.17808609488578</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>38.69871000489565</v>
+        <v>25.82395227059966</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.86090322071606</v>
+        <v>31.51021994178685</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>44.07601372536806</v>
+        <v>34.6093956726018</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>33.87891127567154</v>
+        <v>24.60580040287511</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>34.01913388679699</v>
+        <v>45.52863384222272</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.94708029179118</v>
+        <v>50.52357747082304</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.41620510927984</v>
+        <v>40.16277459031982</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>40.26159105154168</v>
+        <v>46.63445766572147</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>41.3568420364333</v>
+        <v>58.21294043428976</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>45.6077104488602</v>
+        <v>64.68017112518667</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>35.33635139775384</v>
+        <v>51.47126954477558</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.23031729632218</v>
+        <v>44.27880158036822</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.16180962608833</v>
+        <v>49.01001206371942</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.62503133782064</v>
+        <v>38.19082377162816</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.49457725578581</v>
+        <v>48.23598736821806</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>41.57813539516865</v>
+        <v>59.70273266906957</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>45.83266644178181</v>
+        <v>66.17036076691799</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.55514371927191</v>
+        <v>51.99965048866962</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.43307785980397</v>
+        <v>40.07002072533601</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.35064140303701</v>
+        <v>44.44982321802931</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.84183426871837</v>
+        <v>35.37706164008805</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>39.65025751047629</v>
+        <v>49.26939110946111</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.77267441803209</v>
+        <v>57.3635626134813</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>45.01323731990562</v>
+        <v>63.49568969256725</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.76318801544525</v>
+        <v>49.55198682020755</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.52642298288761</v>
+        <v>9.601009125458827</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>17.90285869525256</v>
+        <v>10.49517679718769</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.42427666653236</v>
+        <v>10.7038929830641</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.60158432042589</v>
+        <v>7.896393737023285</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.05012512607435</v>
+        <v>5.039622976798654</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>18.00676559830488</v>
+        <v>16.60411580567796</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>19.3200678118949</v>
+        <v>22.2339152088735</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.87553036510716</v>
+        <v>24.16331789594008</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>13.98105224060035</v>
+        <v>18.70028761802777</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.55114843911919</v>
+        <v>19.23924629291071</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.22716588231745</v>
+        <v>15.38982215502814</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.52999808760686</v>
+        <v>19.46526492725304</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.08912797405225</v>
+        <v>21.0095426020636</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.18820081673251</v>
+        <v>14.00863384516274</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.7763222404238</v>
+        <v>17.06854230775021</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>17.38546123257554</v>
+        <v>14.23573301997236</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.7260489826998</v>
+        <v>14.9732101592041</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.27104805940452</v>
+        <v>16.22531174297489</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.39879849889858</v>
+        <v>10.24189568013884</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.92519913577037</v>
+        <v>13.70345092273089</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.63278879366748</v>
+        <v>5.678344456061136</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.22800298503475</v>
+        <v>5.618346281079127</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.53953298063585</v>
+        <v>2.16167138549666</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.87344165481807</v>
+        <v>14.62548914191761</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.75105622407267</v>
+        <v>18.44739316197015</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.69539138489571</v>
+        <v>19.31467195370363</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.19038582964385</v>
+        <v>12.98531133087936</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.06829519092926</v>
+        <v>23.24085638781453</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.6976971217936</v>
+        <v>25.46872203772653</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.93793868397166</v>
+        <v>19.37087720806743</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.43014451753933</v>
+        <v>33.57354695296846</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.2417020690023</v>
+        <v>43.02438353548008</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.22134834646936</v>
+        <v>46.89569312494896</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.64280422598352</v>
+        <v>37.58057569005411</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.28211499071403</v>
+        <v>19.89408612715392</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.91510777267615</v>
+        <v>21.70817521549177</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.14911168129107</v>
+        <v>15.33541229757451</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.66615884406117</v>
+        <v>33.43735431929068</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.46573346345113</v>
+        <v>42.5545013079583</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.44909792069762</v>
+        <v>46.2879212700699</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.86402948938122</v>
+        <v>36.04920463967483</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.47037812967617</v>
+        <v>12.95146637305235</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.08924343836183</v>
+        <v>14.4066090685089</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>16.35198809851087</v>
+        <v>9.774604547671732</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.80561204598712</v>
+        <v>31.45851474814749</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>30.64476455464566</v>
+        <v>37.08777470217368</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>34.61397170136344</v>
+        <v>40.5513347230719</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.05714368745501</v>
+        <v>30.583577235855</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>14.77235315241245</v>
+        <v>0.6403782475619764</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>16.09038349879513</v>
+        <v>0.4993035281807217</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>19.34719026075751</v>
+        <v>0.1035537847802068</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>11.16013471862401</v>
+        <v>-0.19190011223208</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>17.54708661136701</v>
+        <v>-2.075816614526719</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.17809542176313</v>
+        <v>3.678725144060998</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.43561201253355</v>
+        <v>7.87414187896675</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>20.72468166340086</v>
+        <v>8.90832280156145</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.46947170943675</v>
+        <v>6.271560715400977</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.97245045944388</v>
+        <v>5.925695470951734</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.3894615615491</v>
+        <v>3.329462116449079</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.63694015240539</v>
+        <v>6.165277541711408</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.9295745474674</v>
+        <v>6.836123610097179</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.66813705497756</v>
+        <v>2.767354067973738</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.18797220050196</v>
+        <v>4.34847928125982</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>15.58971078893498</v>
+        <v>5.009491243841467</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>16.87336904913174</v>
+        <v>4.885444873240672</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.152483176396</v>
+        <v>5.398999318493519</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>11.91860130522955</v>
+        <v>2.236886131135496</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>18.37987442612701</v>
+        <v>4.636792132799059</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>19.03922766510609</v>
+        <v>-2.032992108626985</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.36758634237269</v>
+        <v>-2.559954209002825</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.29339940936574</v>
+        <v>-3.554157984653404</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.05248210908606</v>
+        <v>7.653185970665387</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.79245546589378</v>
+        <v>10.89734452794384</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.45899818954391</v>
+        <v>11.11756304960877</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.58516847293195</v>
+        <v>7.570180520039539</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>20.40190057963024</v>
+        <v>9.130053067459553</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.76265213429798</v>
+        <v>10.55922938499333</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.62081142616636</v>
+        <v>7.291489244359738</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.53131368129877</v>
+        <v>21.72579289596838</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.20795166546097</v>
+        <v>30.36721570525825</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>32.90798002062046</v>
+        <v>33.26651938563317</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.96424293896436</v>
+        <v>27.05288865927424</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.60657443787968</v>
+        <v>6.541970482244306</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.9708194725793</v>
+        <v>7.566597483064893</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.82295983923698</v>
+        <v>4.071038290741338</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.75696009758721</v>
+        <v>21.94041258257726</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.42216584972076</v>
+        <v>30.39122732953717</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.12580344688483</v>
+        <v>33.13837404384591</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.17578636185076</v>
+        <v>26.1306308253844</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>19.83611465143268</v>
+        <v>3.690661369052368</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.18685004460003</v>
+        <v>4.514954127988997</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.06655750245605</v>
+        <v>2.570407247006262</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.93977785553493</v>
+        <v>22.45467745226832</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.642821225213</v>
+        <v>27.68380692280166</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.3329173440277</v>
+        <v>30.26317000754086</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.41003254263453</v>
+        <v>23.51008589393034</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.55343297501285</v>
+        <v>20.13663473898621</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.09030065212832</v>
+        <v>22.58345281853369</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>39.89513279711532</v>
+        <v>23.96541812153046</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>30.42728814118406</v>
+        <v>20.56516657511952</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.41295115141143</v>
+        <v>6.782141975845121</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>37.12995545765724</v>
+        <v>33.29881101449514</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>37.60061279896929</v>
+        <v>42.04986946888223</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.44121595384246</v>
+        <v>45.68695575787032</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.89809537643402</v>
+        <v>39.15686545379936</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.00929815186819</v>
+        <v>26.74145099858891</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.35311173754537</v>
+        <v>34.65048873382855</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.81339843359837</v>
+        <v>41.69645639888871</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>41.65777833602429</v>
+        <v>45.07410707844882</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.10816752285267</v>
+        <v>36.80364254672669</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.23735159789889</v>
+        <v>27.53329710009237</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.48513609493376</v>
+        <v>29.76869085347985</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.98328151547559</v>
+        <v>32.34231746687572</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>40.81291373068019</v>
+        <v>35.059137564262</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.29289372722543</v>
+        <v>28.13602536031389</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>39.36132772000479</v>
+        <v>24.00164735112974</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.12840448648936</v>
+        <v>10.28621670573381</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>43.02262554764132</v>
+        <v>11.24972626821007</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>33.64720700436628</v>
+        <v>7.540166737257934</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>45.9432142274937</v>
+        <v>16.1302200136002</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>47.06320248047867</v>
+        <v>20.05619272717412</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>51.26465333906997</v>
+        <v>21.25658946184167</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.13672805214563</v>
+        <v>14.70977951699357</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.65603850990629</v>
+        <v>35.40228178477869</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>44.58618670780701</v>
+        <v>39.28314834922293</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.13598130791567</v>
+        <v>32.56620085500966</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.59501785768497</v>
+        <v>41.80605291277088</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.64581522623359</v>
+        <v>53.40382847197882</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>52.88424262109135</v>
+        <v>58.31845125558313</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.67931867616546</v>
+        <v>48.5850589455877</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.87278578955935</v>
+        <v>34.93369450019284</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.80664289569928</v>
+        <v>38.54695214514822</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>35.35015771153051</v>
+        <v>31.42139681513834</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.83488123390391</v>
+        <v>44.11586600164684</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>48.87367827336228</v>
+        <v>55.2039897920293</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>53.11594755233357</v>
+        <v>60.1122096097072</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.90439726475915</v>
+        <v>49.34635481643571</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>40.03628698151007</v>
+        <v>26.6733141927875</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>43.9554250900327</v>
+        <v>29.68261021961131</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>34.52854666607582</v>
+        <v>24.29696371381877</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.94778803869625</v>
+        <v>41.70671343079506</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>48.0263596997554</v>
+        <v>47.83254387160242</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>52.25385879344392</v>
+        <v>52.09006489885719</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>42.07142582992551</v>
+        <v>41.40663075078633</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.96462467830691</v>
+        <v>34.23159096555068</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.69723220605025</v>
+        <v>34.40383428314277</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.4698352106549</v>
+        <v>37.53637661405327</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.07351756247879</v>
+        <v>27.86213127223753</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.4728657096349</v>
+        <v>20.90977659367186</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.47513685167557</v>
+        <v>43.42098952320598</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.14258184763505</v>
+        <v>48.55270036637909</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>32.95004017971213</v>
+        <v>53.69410307280043</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>23.48052953379731</v>
+        <v>41.28803127543059</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.00581248614036</v>
+        <v>38.86447015663747</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.69307570615318</v>
+        <v>41.00710951443625</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.35031326390183</v>
+        <v>44.80942941164321</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.16139506372792</v>
+        <v>49.58608514066043</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>23.68571505309291</v>
+        <v>35.68028729810018</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.22902269374427</v>
+        <v>36.44152588373601</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.85065221218636</v>
+        <v>42.7772965420104</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.54587039482337</v>
+        <v>43.35259683886831</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>32.3427423085642</v>
+        <v>47.71688431819483</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.89570725284428</v>
+        <v>34.85481162846342</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.37592524975771</v>
+        <v>34.63770702209757</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>30.41048281665697</v>
+        <v>23.30060941667467</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.25875451584289</v>
+        <v>25.7965427949288</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.9988334472404</v>
+        <v>17.80031105420304</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.65178752703386</v>
+        <v>26.53784390109273</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>38.01633931286918</v>
+        <v>29.79746256234918</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.19720054956733</v>
+        <v>32.62390908584612</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>32.17447491224427</v>
+        <v>21.90098261509014</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.8757545150794</v>
+        <v>44.79015971936562</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.75905817765359</v>
+        <v>49.87173608168145</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.42636411146407</v>
+        <v>39.1740105018774</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>38.23502018193194</v>
+        <v>47.85346072772771</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.53169178016639</v>
+        <v>56.91103490799327</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>43.748671227969</v>
+        <v>63.12407177375266</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.65105852500887</v>
+        <v>49.36056233642191</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.08782888944437</v>
+        <v>41.48763729855776</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.9746865558004</v>
+        <v>46.18217888287985</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.63601347099895</v>
+        <v>35.28808235786347</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.46907493702243</v>
+        <v>46.53584653931088</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.753982202639</v>
+        <v>55.55799983389004</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>43.97463980241542</v>
+        <v>61.63807240838106</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.87077142401989</v>
+        <v>47.11802665803633</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>31.27441768134382</v>
+        <v>36.31585788978433</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>35.14704730185068</v>
+        <v>40.53023283090185</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.83714174921889</v>
+        <v>31.51997237220903</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>37.60725152156442</v>
+        <v>46.43564005131315</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.93204553077655</v>
+        <v>52.17066415842598</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.13843999580146</v>
+        <v>57.74086885981983</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>33.06283889074231</v>
+        <v>43.68049659822944</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>23.69696892049551</v>
+        <v>31.39613955842616</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.42060805866652</v>
+        <v>27.84131205784654</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.67164169241741</v>
+        <v>30.44665610181828</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.38907737552312</v>
+        <v>21.93884655953388</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.37612396777665</v>
+        <v>20.62571236144053</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.35983827927738</v>
+        <v>41.76551782846118</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.01399208678191</v>
+        <v>44.52369842865652</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.3035332546837</v>
+        <v>49.45425267481152</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.94012960595805</v>
+        <v>37.80701719162072</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.06391005187265</v>
+        <v>40.00585485991763</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.60636550217771</v>
+        <v>41.07359972881724</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.24865149008322</v>
+        <v>41.95108273280064</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>31.54216285318323</v>
+        <v>46.64167411784217</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.17172951342891</v>
+        <v>33.06874854591594</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.31583963787334</v>
+        <v>38.63864159435575</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.67218133292263</v>
+        <v>41.64451895746193</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.35585610377294</v>
+        <v>38.286359702006</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.63377576127101</v>
+        <v>42.3911229799383</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>20.29481638223542</v>
+        <v>29.89556161009491</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.3716433735841</v>
+        <v>37.81179245044935</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.27197447020483</v>
+        <v>23.6198847976376</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>33.6238649706979</v>
+        <v>26.22790665215682</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>23.44161820988068</v>
+        <v>17.88363855798663</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>35.3984306941121</v>
+        <v>25.18365760236703</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.73109723891672</v>
+        <v>29.06768120911362</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.41407276637442</v>
+        <v>31.74771837544973</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.43705572528837</v>
+        <v>21.75328747895686</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.88745258803178</v>
+        <v>47.9768864955509</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.27805909013139</v>
+        <v>53.63348120850532</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.01542941135766</v>
+        <v>42.2473941725531</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.14283579698665</v>
+        <v>48.19097434342883</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.40284619197195</v>
+        <v>59.69084093879017</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.12565278698198</v>
+        <v>66.22061937559866</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.06599851237704</v>
+        <v>53.10523744572711</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.12649607276196</v>
+        <v>45.21624227942763</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.52100358626681</v>
+        <v>50.6348630380983</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.25156909597161</v>
+        <v>38.73313432070069</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.40714104994733</v>
+        <v>48.27393507211272</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.65355516520485</v>
+        <v>59.16074439079234</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>44.38040663433482</v>
+        <v>65.71627069100788</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.31359204533263</v>
+        <v>51.5187906566311</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.22552612246005</v>
+        <v>39.95798782699282</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.60445557993302</v>
+        <v>44.80461181735774</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.36656104934093</v>
+        <v>34.58904555575313</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>36.45271632817749</v>
+        <v>49.95698223512694</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.74255668671819</v>
+        <v>56.19626610202081</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>43.4537828924631</v>
+        <v>62.15274978219367</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.41795345139779</v>
+        <v>47.90774497809691</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-12.20652389358298</v>
+        <v>34.72645626192643</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-7.117175075190666</v>
+        <v>28.0227137623983</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-2.501428285390041</v>
+        <v>29.9913655911941</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-13.08207520642446</v>
+        <v>22.72225748177336</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-6.879809321961309</v>
+        <v>33.16745335098291</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-10.39842722222075</v>
+        <v>45.58037198401927</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>-5.382604016184125</v>
+        <v>45.01978914096073</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>-0.723893542353625</v>
+        <v>49.20991884568164</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-11.39415371436075</v>
+        <v>38.87205412138574</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-5.042000621724609</v>
+        <v>51.72329499087753</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-10.10189531383593</v>
+        <v>48.15215864123725</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-5.101110039096524</v>
+        <v>45.76827707134674</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-0.4378605467212875</v>
+        <v>49.80953634483893</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-11.11664576146801</v>
+        <v>37.47708592045769</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-4.740140722243292</v>
+        <v>52.9363332378852</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-11.17773713118511</v>
+        <v>48.38923009138228</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-6.128179566250102</v>
+        <v>41.846417623295</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1.482508699458695</v>
+        <v>45.42519950140368</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-12.1250895482182</v>
+        <v>33.9721182369932</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-5.826389378733911</v>
+        <v>52.36925179610786</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-1.693156137382078</v>
+        <v>28.21868296808973</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>3.047636865905758</v>
+        <v>29.87887637102679</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-7.46188429261802</v>
+        <v>23.00199740387398</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>4.16877020915021</v>
+        <v>36.59356118688199</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.729786711726495</v>
+        <v>33.09880392410616</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>14.86618226251005</v>
+        <v>34.66043830241352</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>3.393856931884415</v>
+        <v>26.46752030423493</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>0.06788105875800787</v>
+        <v>51.54649619829564</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>4.851904011041015</v>
+        <v>56.04210299501213</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-5.746780147409172</v>
+        <v>46.33357792011639</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.07522164194285</v>
+        <v>59.4962011365544</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>11.55889063652639</v>
+        <v>63.41516422479166</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.73981505747285</v>
+        <v>68.56953169982528</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>5.17566586759048</v>
+        <v>57.4786644135809</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>0.3536280910358052</v>
+        <v>51.44269538167994</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.142097545160293</v>
+        <v>55.76242325971288</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-5.464822184549958</v>
+        <v>45.43359898080743</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>6.390392689421391</v>
+        <v>61.76832488418314</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.85720498190303</v>
+        <v>65.0665218661391</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.04272957847635</v>
+        <v>70.27625261166054</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>5.469982838646565</v>
+        <v>58.02331672634913</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-0.6818880032640597</v>
+        <v>46.78799590983747</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>4.089014951918875</v>
+        <v>50.71866143894582</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-6.481654894081554</v>
+        <v>41.72262538260638</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.29306900302187</v>
+        <v>62.75769164039718</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>10.81074914431492</v>
+        <v>61.59827332784472</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.97866465319867</v>
+        <v>66.37380068672584</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>4.44150809433226</v>
+        <v>53.79538087199325</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>20.71617543720735</v>
+        <v>24.00470818110125</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.35680735973487</v>
+        <v>24.59790061044349</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.42798995377544</v>
+        <v>27.17666183600507</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>16.46155503527707</v>
+        <v>18.29885540581144</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.18955597546239</v>
+        <v>15.93664219113781</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.34624850351256</v>
+        <v>40.36233223230028</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.9177009106174</v>
+        <v>46.08590607493007</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.02672807802922</v>
+        <v>51.14340746437629</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.98093210858308</v>
+        <v>38.47397656651363</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.84396533856072</v>
+        <v>38.20568235014629</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.58852140037584</v>
+        <v>39.54889319200583</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.14844271945517</v>
+        <v>43.67783948461857</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.26141220576026</v>
+        <v>48.38442981477608</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>18.2087283850121</v>
+        <v>34.01025164238727</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.09141896841228</v>
+        <v>37.23132876138723</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.6654481111375</v>
+        <v>36.18025186528234</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.2669672489527</v>
+        <v>37.05058628993329</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.36439565317175</v>
+        <v>40.96336304066862</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>17.34308954770325</v>
+        <v>28.30214380790409</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.15806107160387</v>
+        <v>31.39786924936348</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.99307495339115</v>
+        <v>17.96980087026727</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>30.15813575791397</v>
+        <v>20.23723427907969</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.30117953483579</v>
+        <v>12.47306187804556</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.05087861830542</v>
+        <v>21.31784904709009</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.30589200157592</v>
+        <v>24.84650016941111</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.81212289663607</v>
+        <v>27.09648263799309</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.16758767498327</v>
+        <v>17.82780743201415</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.5755284607505</v>
+        <v>43.89977735448115</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.77863885908268</v>
+        <v>49.22000067422523</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.84272318774087</v>
+        <v>37.9107252251634</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.75903216804824</v>
+        <v>47.32269694748875</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.94190528946562</v>
+        <v>57.03734326627716</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.48728859366943</v>
+        <v>63.19789721660568</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.76163912549373</v>
+        <v>50.00335048990331</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>27.81044470905925</v>
+        <v>41.7574743784053</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>32.0174230306767</v>
+        <v>46.72180125366341</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.07483045129466</v>
+        <v>35.02883891932984</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>34.0181592258436</v>
+        <v>47.0446764460451</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.18784533676964</v>
+        <v>56.49712534549216</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.73722734208526</v>
+        <v>62.55119241950396</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.00459493113003</v>
+        <v>48.44366618324574</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.92046657207053</v>
+        <v>32.52218167796286</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.11190064411848</v>
+        <v>36.70121950348091</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.20079129532903</v>
+        <v>27.29210036219652</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.07599108336834</v>
+        <v>43.14767429919056</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.28921627375693</v>
+        <v>49.17663818532807</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.82303258154791</v>
+        <v>54.38520884809234</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.12131180484371</v>
+        <v>41.15453041173721</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.88254376863708</v>
+        <v>9.06257856798884</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.27205953774693</v>
+        <v>9.095928153737393</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.96448443184364</v>
+        <v>9.679733334782373</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.83443604819084</v>
+        <v>6.250816500767897</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.78531760737294</v>
+        <v>13.73535900671867</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.41543065592435</v>
+        <v>18.54601319943956</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.74027585507224</v>
+        <v>23.40056847482613</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.46790204879365</v>
+        <v>25.93453539554777</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>18.26345648220973</v>
+        <v>19.55530998087916</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.34202731659801</v>
+        <v>34.990799544769</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.64104903094664</v>
+        <v>17.79897293463658</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>23.95510533028187</v>
+        <v>21.19611658197471</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.68643395732261</v>
+        <v>23.37734964348314</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>18.47538753433268</v>
+        <v>15.63410350948141</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.57222503516304</v>
+        <v>32.91656250908275</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.7767618319374</v>
+        <v>18.78205451821261</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.12908294133569</v>
+        <v>18.71751831136064</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.84582506191837</v>
+        <v>20.39788653015142</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.66436509992729</v>
+        <v>13.67039140490635</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.69902593795612</v>
+        <v>31.56062574510643</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.28750240374823</v>
+        <v>15.08338169541754</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.08516000410588</v>
+        <v>16.32930583142956</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.01198637148877</v>
+        <v>10.40276572025825</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.48947096694661</v>
+        <v>17.50236339996515</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.37802345182537</v>
+        <v>19.47866902676317</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.48254496809259</v>
+        <v>20.68259621036795</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.67124234980668</v>
+        <v>13.42566966409772</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.77686914712177</v>
+        <v>39.9538574345132</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.60995645010592</v>
+        <v>43.8819118211449</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.46272158274355</v>
+        <v>34.90832299437027</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.1008584042676</v>
+        <v>44.90831006376938</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.92155296295154</v>
+        <v>52.87428941523232</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>40.06251497136716</v>
+        <v>57.54140585282472</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.17504548204521</v>
+        <v>46.93497189162437</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>27.99537989896229</v>
+        <v>36.90790415021577</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.83209101325503</v>
+        <v>40.42400355126644</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.67848804965254</v>
+        <v>31.37842619449725</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>34.34271372001707</v>
+        <v>44.7373958587415</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.15102731843827</v>
+        <v>52.30766377895963</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>40.2957457398299</v>
+        <v>56.81081685391992</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.40156480433359</v>
+        <v>45.51281951757898</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>27.16211091995939</v>
+        <v>31.83445333153614</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.98424374743451</v>
+        <v>34.77629181080548</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>21.8602814579617</v>
+        <v>27.34276118001879</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>33.45906909038214</v>
+        <v>43.21276767945677</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.30757688321014</v>
+        <v>46.86472452465894</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>39.43768055827764</v>
+        <v>50.7305870138166</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.57263701707381</v>
+        <v>39.60933229853708</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-13.05635891494057</v>
+        <v>16.81629206442302</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-7.914240801130106</v>
+        <v>15.09057274886075</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-3.331434870390078</v>
+        <v>16.33510971977213</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-13.82308468301752</v>
+        <v>11.24606248646109</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-7.747226802791779</v>
+        <v>13.81480560101957</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-11.2507985057705</v>
+        <v>29.19878721582186</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-6.182070965812999</v>
+        <v>33.42454552481377</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>-1.556384464229099</v>
+        <v>36.87579712450611</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-12.13746601483348</v>
+        <v>28.63913577565099</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-5.912007335210118</v>
+        <v>33.61134798564844</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-10.95446654899548</v>
+        <v>33.77229719917153</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-5.900780371038264</v>
+        <v>36.04062986074224</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-1.270554025072585</v>
+        <v>39.37064179263388</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-11.86017803337373</v>
+        <v>29.10512801909429</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-5.610362781747046</v>
+        <v>36.05534797971122</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-12.03047488208908</v>
+        <v>33.29593503563301</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-6.927996046550442</v>
+        <v>31.5577385923617</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-2.315355094071233</v>
+        <v>34.40229757229084</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-12.86872942659821</v>
+        <v>25.14644073946738</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>-6.696779707686884</v>
+        <v>34.7241284736166</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-2.511837606389175</v>
+        <v>13.67603224818795</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>2.1964066306161</v>
+        <v>14.72751429591466</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-8.228414400061764</v>
+        <v>8.733816065185472</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>3.389022405941104</v>
+        <v>14.94079292208845</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>8.996513906450906</v>
+        <v>15.89698076977396</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>14.10102069825855</v>
+        <v>16.69643861622661</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2.711760503167538</v>
+        <v>9.692175620000704</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>-0.7532648325464104</v>
+        <v>38.13123003230683</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>3.99812656400704</v>
+        <v>42.01061173337621</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-6.515687915828609</v>
+        <v>33.0984336234974</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>5.293395121670141</v>
+        <v>39.96009578234029</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>10.82363449279486</v>
+        <v>48.25417653921961</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>15.97258801005565</v>
+        <v>52.65421365949339</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.491662578829569</v>
+        <v>42.60303411153058</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-0.4677331323054985</v>
+        <v>39.18307110745543</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>4.28810322197485</v>
+        <v>42.90139852244382</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-6.233961459553047</v>
+        <v>33.34703921807757</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>5.608409210042145</v>
+        <v>43.43182371604749</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>11.12178539481399</v>
+        <v>51.0077799812401</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>16.27533891718389</v>
+        <v>55.47954050320683</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>4.785797301412408</v>
+        <v>44.2178182312541</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-1.503396838840239</v>
+        <v>33.89822105104862</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>3.234866156108402</v>
+        <v>37.18946799631414</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-7.250902127831699</v>
+        <v>29.09692557937457</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>4.510763943394728</v>
+        <v>43.05783799245276</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>10.07504274176019</v>
+        <v>46.24566946908192</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>15.21098120907777</v>
+        <v>50.22970383482372</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>3.757078939406806</v>
+        <v>38.80257047345308</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.89596649646274</v>
+        <v>36.444053433657</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.51076282666505</v>
+        <v>34.40155376733409</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.36201460549714</v>
+        <v>37.1897639650016</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.73857780647326</v>
+        <v>28.21386630444681</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.40171796004098</v>
+        <v>24.53731307173349</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.41356929758197</v>
+        <v>44.9772818333804</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>33.96468335143702</v>
+        <v>48.56581810001384</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.851000093295</v>
+        <v>53.2749975317337</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.15390487301595</v>
+        <v>41.71016159687335</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.93987919172316</v>
+        <v>40.37952504788135</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>33.62858627975851</v>
+        <v>43.46215466521643</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.16972087281031</v>
+        <v>45.58817795651131</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>38.059670652784</v>
+        <v>50.01501708835994</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.35631792314729</v>
+        <v>36.64567380535348</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.16030622307829</v>
+        <v>40.05343752516311</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.79065316790583</v>
+        <v>43.72713221919093</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.36845872266149</v>
+        <v>41.83497397524425</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>37.24416977266695</v>
+        <v>46.01609828988874</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>27.5691715779586</v>
+        <v>32.98290834422736</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.31334067086507</v>
+        <v>39.93758804407327</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>35.23930164402013</v>
+        <v>27.82950648184134</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>39.18002215687824</v>
+        <v>30.3118179130618</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.66478930573659</v>
+        <v>22.70717900362359</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>41.78541411177338</v>
+        <v>26.40996786524675</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.02188298339365</v>
+        <v>30.47380224064597</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>47.26540778035062</v>
+        <v>32.90435230812231</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>37.03486423530006</v>
+        <v>23.58407733422753</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.71132075962093</v>
+        <v>47.68404172039696</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>40.68728655503774</v>
+        <v>52.73997907034094</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>31.09886615063273</v>
+        <v>42.50569117218146</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>43.3775268180465</v>
+        <v>47.17451863384218</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>44.54733196896715</v>
+        <v>57.45382678235347</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>48.82713344619039</v>
+        <v>63.23711317865681</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>38.52130765474102</v>
+        <v>51.11448597986151</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>36.92080322521937</v>
+        <v>46.25414733535963</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>40.9003345564663</v>
+        <v>51.04153940635358</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>31.30586448308209</v>
+        <v>40.26152032863109</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>43.60958614103477</v>
+        <v>48.76954313959551</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>44.76776849084377</v>
+        <v>58.63916225677252</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>49.05126024375262</v>
+        <v>64.41716193672129</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.73907331172439</v>
+        <v>51.14980382147003</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>36.11220773541498</v>
+        <v>42.24282038033141</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>40.07751632841858</v>
+        <v>46.76722397689326</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>30.51144698262646</v>
+        <v>37.00541730960743</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>42.75179984325128</v>
+        <v>48.83987394310534</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>43.9486658004844</v>
+        <v>54.73601325904978</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>48.2178756878095</v>
+        <v>60.21448403165465</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>37.93364038777707</v>
+        <v>46.45164634241815</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>24.84771815959167</v>
+        <v>22.179038459496</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>26.14334805895229</v>
+        <v>21.77937810452604</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>30.20797393538273</v>
+        <v>24.46946027386109</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>20.21282714997463</v>
+        <v>15.63195733567609</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>28.24937016736198</v>
+        <v>18.65012187822303</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.46564059314057</v>
+        <v>39.82755168799881</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>27.69237880191848</v>
+        <v>44.25727146022686</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>31.79452229525511</v>
+        <v>49.448959134719</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>21.72064058290086</v>
+        <v>36.83540210050238</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.89086192299171</v>
+        <v>40.51188359046349</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>26.70316963413212</v>
+        <v>39.7911868150038</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>27.91864807848312</v>
+        <v>42.62967099787759</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>32.02467903394538</v>
+        <v>47.50025574048786</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>21.94403312935703</v>
+        <v>33.13924304268981</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>30.1334600651154</v>
+        <v>39.75801398398043</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>25.7935420217956</v>
+        <v>35.87279561370972</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>27.04991771127477</v>
+        <v>35.70783090578088</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>31.14058205592577</v>
+        <v>39.79805861087178</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>21.09087318248933</v>
+        <v>27.09684349427001</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>29.21395911168783</v>
+        <v>34.41960296638158</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.70473302629607</v>
+        <v>20.60594822892171</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>33.86271455063189</v>
+        <v>23.12593891184163</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>23.9759687605052</v>
+        <v>15.27962732688446</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>35.60613367083074</v>
+        <v>20.63416334546507</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>37.54026265410585</v>
+        <v>23.39965925678408</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>42.0269551799374</v>
+        <v>25.64478209743139</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>31.3798611734842</v>
+        <v>16.19919764440375</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>31.27462585420443</v>
+        <v>46.05837440615126</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>35.47031791407638</v>
+        <v>51.62150287855497</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>25.50526556624271</v>
+        <v>40.26782603664747</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>37.30001265837555</v>
+        <v>47.04820978084716</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>39.16240260827973</v>
+        <v>55.84576914771203</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>43.68788642301777</v>
+        <v>61.98845794033613</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>32.96036450818882</v>
+        <v>48.65307614862508</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>31.50498465694378</v>
+        <v>44.19699021392435</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.7044928036046</v>
+        <v>49.42218649588599</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.73288772034025</v>
+        <v>37.6581536242559</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>37.55415963203532</v>
+        <v>46.84943846894784</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>39.40365692787879</v>
+        <v>55.40101659451948</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>43.93308559374146</v>
+        <v>61.44396161977354</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>33.19870164657403</v>
+        <v>47.18931394033878</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>30.62812707703463</v>
+        <v>35.60494115962529</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>34.8122742353164</v>
+        <v>40.08079255105714</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>24.8716960834693</v>
+        <v>30.53840800177422</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>36.62556112230561</v>
+        <v>42.06469276092464</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>38.51788845959698</v>
+        <v>47.32671278207307</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>43.03192065134084</v>
+        <v>52.52840629912487</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>32.32802769058949</v>
+        <v>39.10053232198402</v>
       </c>
     </row>
   </sheetData>
